--- a/docs/shop-balancing.xlsx
+++ b/docs/shop-balancing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Source\Repos\BeeFree2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97027CEB-0AA6-403D-8235-F2D47A056A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF5FCE-5BBA-464D-BFE6-F4539356FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2610" windowWidth="24240" windowHeight="13740" xr2:uid="{6FE6F103-514C-4E57-90DB-517A8D3E4D44}"/>
+    <workbookView xWindow="-24120" yWindow="2610" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{6FE6F103-514C-4E57-90DB-517A8D3E4D44}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Exp Growth" sheetId="2" r:id="rId1"/>
+    <sheet name="Fractional Growth" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Level</t>
   </si>
@@ -458,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB09D125-0E4C-44A9-A25A-D0EB2DEC9540}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -496,21 +497,21 @@
       </c>
       <c r="B2" s="3">
         <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A2))</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <f>B2</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <f>$G$3 + ($G$4 * A2)</f>
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,21 +520,21 @@
       </c>
       <c r="B3" s="3">
         <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A3))</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3">
         <f>C2+B3</f>
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D20" si="0">$G$3 + ($G$4 * A3)</f>
-        <v>0.12000000000000001</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,21 +543,21 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B20" si="1">_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A4))</f>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C28" si="2">C3+B4</f>
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,15 +566,15 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,15 +583,15 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>775</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,15 +600,15 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>1575</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,15 +617,15 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>1600</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>3175</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,15 +634,15 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>3200</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>6375</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,15 +651,15 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>6400</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>12775</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,15 +668,15 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>12800</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>344</v>
+        <v>25575</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,15 +685,15 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>25600</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="2"/>
-        <v>488</v>
+        <v>51175</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,15 +702,15 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>51200</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
-        <v>690</v>
+        <v>102375</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,15 +719,15 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="1"/>
-        <v>283</v>
+        <v>102400</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="2"/>
-        <v>973</v>
+        <v>204775</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0.33999999999999997</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,15 +736,15 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>204800</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="2"/>
-        <v>1369</v>
+        <v>409575</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,15 +753,15 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="1"/>
-        <v>555</v>
+        <v>409600</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="2"/>
-        <v>1924</v>
+        <v>819175</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,15 +770,15 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="1"/>
-        <v>777</v>
+        <v>819200</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="2"/>
-        <v>2701</v>
+        <v>1638375</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,15 +787,15 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="1"/>
-        <v>1088</v>
+        <v>1638400</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="2"/>
-        <v>3789</v>
+        <v>3276775</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,15 +804,15 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="1"/>
-        <v>1524</v>
+        <v>3276800</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="2"/>
-        <v>5313</v>
+        <v>6553575</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0.44000000000000006</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,15 +821,15 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="1"/>
-        <v>2134</v>
+        <v>6553600</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="2"/>
-        <v>7447</v>
+        <v>13107175</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0.45999999999999996</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,15 +838,15 @@
       </c>
       <c r="B21" s="3">
         <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A21))</f>
-        <v>2988</v>
+        <v>13107200</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="2"/>
-        <v>10435</v>
+        <v>26214375</v>
       </c>
       <c r="D21" s="4">
         <f>$G$3 + ($G$4 * A21)</f>
-        <v>0.48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,15 +855,15 @@
       </c>
       <c r="B22" s="3">
         <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A22))</f>
-        <v>4183</v>
+        <v>26214400</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="2"/>
-        <v>14618</v>
+        <v>52428775</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:D28" si="3">$G$3 + ($G$4 * A22)</f>
-        <v>0.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,15 +872,15 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ref="B23:B28" si="4">_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A23))</f>
-        <v>5856</v>
+        <v>52428800</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="2"/>
-        <v>20474</v>
+        <v>104857575</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,15 +889,15 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="4"/>
-        <v>8199</v>
+        <v>104857600</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="2"/>
-        <v>28673</v>
+        <v>209715175</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="3"/>
-        <v>0.54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,15 +906,15 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="4"/>
-        <v>11479</v>
+        <v>209715200</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="2"/>
-        <v>40152</v>
+        <v>419430375</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,15 +923,15 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="4"/>
-        <v>16070</v>
+        <v>419430400</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="2"/>
-        <v>56222</v>
+        <v>838860775</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="3"/>
-        <v>0.57999999999999996</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,15 +940,15 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="4"/>
-        <v>22499</v>
+        <v>838860800</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="2"/>
-        <v>78721</v>
+        <v>1677721575</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,15 +957,534 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="4"/>
-        <v>31499</v>
+        <v>1677721600</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="2"/>
-        <v>110220</v>
+        <v>3355443175</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7DFBF1-30C8-4C85-9E85-1C06F460CBE9}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A2))</f>
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <f xml:space="preserve"> $G$3 * ($G$3 / ($G$3 + ($G$4 * A2)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A3))</f>
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2+B3</f>
+        <v>72</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D28" si="0" xml:space="preserve"> $G$3 * ($G$3 / ($G$3 + ($G$4 * A3)))</f>
+        <v>9.0909090909090925E-2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B20" si="1">_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A4))</f>
+        <v>90</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C28" si="2">C3+B4</f>
+        <v>162</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571438E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>619</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>1277</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>2453</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>2234</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>4687</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>4245</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>8932</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>8067</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>16999</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>15327</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>32326</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>29122</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>61448</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>55332</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>116780</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545463E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>105132</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>221912</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>199751</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>421663</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>379528</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="2"/>
+        <v>801191</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>721103</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="2"/>
+        <v>1522294</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>1370096</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>2892390</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>2603183</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>5495573</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285719E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A21))</f>
+        <v>4946049</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>10441622</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <f>_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A22))</f>
+        <v>9397493</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>19839115</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:B28" si="3">_xlfn.FLOOR.MATH($G$1 * POWER($G$2, A23))</f>
+        <v>17855237</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>37694352</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129038E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="3"/>
+        <v>33924951</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>71619303</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="3"/>
+        <v>64457406</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>136076709</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="3"/>
+        <v>122469073</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="2"/>
+        <v>258545782</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882359E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="3"/>
+        <v>232691239</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="2"/>
+        <v>491237021</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428577E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="3"/>
+        <v>442113354</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="2"/>
+        <v>933350375</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>2.777777777777778E-2</v>
       </c>
     </row>
   </sheetData>
